--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_343__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_343__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,70 +5417,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-1.307145476341248</c:v>
+                  <c:v>-1.307157278060913</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.5296852588653564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.83398056030273</c:v>
+                  <c:v>38.83396530151367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.51687240600586</c:v>
+                  <c:v>24.51687622070312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.87821960449219</c:v>
+                  <c:v>86.87820434570312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.73076343536377</c:v>
+                  <c:v>-1.730766415596008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2340071648359299</c:v>
+                  <c:v>0.2339836061000824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.2789307832717896</c:v>
+                  <c:v>-0.2789072096347809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.31439971923828</c:v>
+                  <c:v>88.31441497802734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.03600574657320976</c:v>
+                  <c:v>-0.03599396720528603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.13987731933594</c:v>
+                  <c:v>91.139892578125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.1624699234962463</c:v>
+                  <c:v>-0.1624758094549179</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.02809971198439598</c:v>
+                  <c:v>-0.028105603531003</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>76.45989227294922</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93.48165893554688</c:v>
+                  <c:v>93.48166656494141</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84.77623748779297</c:v>
+                  <c:v>84.77622985839844</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.13221740722656</c:v>
+                  <c:v>70.13222503662109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102.4508666992188</c:v>
+                  <c:v>102.4508743286133</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.3164815008640289</c:v>
+                  <c:v>-0.316463828086853</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>99.21131896972656</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.562981128692627</c:v>
+                  <c:v>2.562987089157104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>92.66797637939453</c:v>
+                  <c:v>92.66796875</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-0.08876174688339233</c:v>
@@ -5495,25 +5495,25 @@
                   <c:v>0.09310063719749451</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.2909135520458221</c:v>
+                  <c:v>-0.2909017503261566</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.0204764548689127</c:v>
+                  <c:v>-0.02046467363834381</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78.60486602783203</c:v>
+                  <c:v>78.60487365722656</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.2355595082044601</c:v>
+                  <c:v>-0.235594853758812</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>94.80213165283203</c:v>
+                  <c:v>94.80213928222656</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>96.17838287353516</c:v>
+                  <c:v>96.17839050292969</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4462800920009613</c:v>
+                  <c:v>0.4462918937206268</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>85.94265747070312</c:v>
@@ -5522,28 +5522,28 @@
                   <c:v>55.00630950927734</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>91.7021484375</c:v>
+                  <c:v>91.70214080810547</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.1355558186769485</c:v>
+                  <c:v>-0.1355617046356201</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>82.40441131591797</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>54.87100982666016</c:v>
+                  <c:v>54.87100219726562</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.03391436114907265</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>95.03074645996094</c:v>
+                  <c:v>95.03073883056641</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2154586166143417</c:v>
+                  <c:v>-0.2154468297958374</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>89.89906311035156</c:v>
+                  <c:v>89.89907836914062</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>95.05417633056641</c:v>
@@ -5552,25 +5552,25 @@
                   <c:v>0.2840826511383057</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.4402298033237457</c:v>
+                  <c:v>0.4402121305465698</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>98.37165832519531</c:v>
+                  <c:v>98.3717041015625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.8612909913063049</c:v>
+                  <c:v>0.8612821698188782</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.09582238644361496</c:v>
+                  <c:v>0.09581060707569122</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.19248199462891</c:v>
+                  <c:v>96.19249725341797</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>83.47808837890625</c:v>
+                  <c:v>83.47809600830078</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.08374536037445068</c:v>
+                  <c:v>0.08373946696519852</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>95.87431335449219</c:v>
@@ -5579,16 +5579,16 @@
                   <c:v>92.98078155517578</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>92.84071350097656</c:v>
+                  <c:v>92.84072875976562</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.6280128955841064</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>99.94821166992188</c:v>
+                  <c:v>99.94823455810547</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>91.99160003662109</c:v>
+                  <c:v>91.99159240722656</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0.3414161503314972</c:v>
@@ -5600,79 +5600,79 @@
                   <c:v>-1.346021771430969</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.2720881104469299</c:v>
+                  <c:v>0.2720998823642731</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.3456548750400543</c:v>
+                  <c:v>-0.3456578254699707</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>-0.05516993254423141</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>91.26371765136719</c:v>
+                  <c:v>91.26371002197266</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.4448190629482269</c:v>
+                  <c:v>0.444771945476532</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>90.91735076904297</c:v>
+                  <c:v>90.91736602783203</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-0.285045862197876</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>94.93476867675781</c:v>
+                  <c:v>94.93477630615234</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>98.84575653076172</c:v>
+                  <c:v>98.84577941894531</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>100.3760299682617</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>87.89987945556641</c:v>
+                  <c:v>87.89986419677734</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>91.30288696289062</c:v>
+                  <c:v>91.30290222167969</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.02453846111893654</c:v>
+                  <c:v>0.02451489679515362</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>95.87293243408203</c:v>
+                  <c:v>95.87291717529297</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>101.4807052612305</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79.81272888183594</c:v>
+                  <c:v>79.81273651123047</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>93.30989074707031</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.4176575541496277</c:v>
+                  <c:v>-0.4176516532897949</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>81.21973419189453</c:v>
+                  <c:v>81.21974182128906</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.86634063720703</c:v>
+                  <c:v>94.86634826660156</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>57.71469497680664</c:v>
+                  <c:v>57.71470260620117</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.1360271126031876</c:v>
+                  <c:v>-0.1360094398260117</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.4713973701000214</c:v>
+                  <c:v>-0.4714032709598541</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>98.17510986328125</c:v>
+                  <c:v>98.17511749267578</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.0232158787548542</c:v>
+                  <c:v>-0.02322177030146122</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-0.06900843977928162</c:v>
@@ -5681,7 +5681,7 @@
                   <c:v>98.40760803222656</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.009833942167460918</c:v>
+                  <c:v>0.009839832782745361</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>94.15444946289062</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.307145476341248</v>
+        <v>-1.307157278060913</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>38.83398056030273</v>
+        <v>38.83396530151367</v>
       </c>
       <c r="G4">
         <v>114</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.51687240600586</v>
+        <v>24.51687622070312</v>
       </c>
       <c r="G5">
         <v>114</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>86.87821960449219</v>
+        <v>86.87820434570312</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>-1.73076343536377</v>
+        <v>-1.730766415596008</v>
       </c>
       <c r="G7">
         <v>114</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2340071648359299</v>
+        <v>0.2339836061000824</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.2789307832717896</v>
+        <v>-0.2789072096347809</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>88.31439971923828</v>
+        <v>88.31441497802734</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.03600574657320976</v>
+        <v>-0.03599396720528603</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>91.13987731933594</v>
+        <v>91.139892578125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.1624699234962463</v>
+        <v>-0.1624758094549179</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.02809971198439598</v>
+        <v>-0.028105603531003</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>93.48165893554688</v>
+        <v>93.48166656494141</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>84.77623748779297</v>
+        <v>84.77622985839844</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>70.13221740722656</v>
+        <v>70.13222503662109</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>102.4508666992188</v>
+        <v>102.4508743286133</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.3164815008640289</v>
+        <v>-0.316463828086853</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>2.562981128692627</v>
+        <v>2.562987089157104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>92.66797637939453</v>
+        <v>92.66796875</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.2909135520458221</v>
+        <v>-0.2909017503261566</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.0204764548689127</v>
+        <v>-0.02046467363834381</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>78.60486602783203</v>
+        <v>78.60487365722656</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.2355595082044601</v>
+        <v>-0.235594853758812</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>94.80213165283203</v>
+        <v>94.80213928222656</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>96.17838287353516</v>
+        <v>96.17839050292969</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.4462800920009613</v>
+        <v>0.4462918937206268</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>91.7021484375</v>
+        <v>91.70214080810547</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.1355558186769485</v>
+        <v>-0.1355617046356201</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>54.87100982666016</v>
+        <v>54.87100219726562</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>95.03074645996094</v>
+        <v>95.03073883056641</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.2154586166143417</v>
+        <v>-0.2154468297958374</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>89.89906311035156</v>
+        <v>89.89907836914062</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.4402298033237457</v>
+        <v>0.4402121305465698</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>98.37165832519531</v>
+        <v>98.3717041015625</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.8612909913063049</v>
+        <v>0.8612821698188782</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.09582238644361496</v>
+        <v>0.09581060707569122</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>96.19248199462891</v>
+        <v>96.19249725341797</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>83.47808837890625</v>
+        <v>83.47809600830078</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.08374536037445068</v>
+        <v>0.08373946696519852</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>92.84071350097656</v>
+        <v>92.84072875976562</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>99.94821166992188</v>
+        <v>99.94823455810547</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>91.99160003662109</v>
+        <v>91.99159240722656</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.2720881104469299</v>
+        <v>0.2720998823642731</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.3456548750400543</v>
+        <v>-0.3456578254699707</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>91.26371765136719</v>
+        <v>91.26371002197266</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.4448190629482269</v>
+        <v>0.444771945476532</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>90.91735076904297</v>
+        <v>90.91736602783203</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>94.93476867675781</v>
+        <v>94.93477630615234</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>98.84575653076172</v>
+        <v>98.84577941894531</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>87.89987945556641</v>
+        <v>87.89986419677734</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>91.30288696289062</v>
+        <v>91.30290222167969</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.02453846111893654</v>
+        <v>0.02451489679515362</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>95.87293243408203</v>
+        <v>95.87291717529297</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>79.81272888183594</v>
+        <v>79.81273651123047</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.4176575541496277</v>
+        <v>-0.4176516532897949</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>81.21973419189453</v>
+        <v>81.21974182128906</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>94.86634063720703</v>
+        <v>94.86634826660156</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>57.71469497680664</v>
+        <v>57.71470260620117</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.1360271126031876</v>
+        <v>-0.1360094398260117</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.4713973701000214</v>
+        <v>-0.4714032709598541</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>98.17510986328125</v>
+        <v>98.17511749267578</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.0232158787548542</v>
+        <v>-0.02322177030146122</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.009833942167460918</v>
+        <v>0.009839832782745361</v>
       </c>
     </row>
     <row r="91" spans="1:6">
